--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_6_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500731</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177831</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647583070.161899</v>
+        <v>62581087.82270409</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1441,7 +1441,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X11" t="n">
-        <v>590.8934891676915</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
         <v>511.3174326828064</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D14" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E14" t="n">
         <v>404.3632896068686</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1800,16 +1800,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D17" t="n">
-        <v>408.9508114468735</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E17" t="n">
         <v>404.3632896068686</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V20" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W20" t="n">
         <v>638.3734759809475</v>
@@ -2280,7 +2280,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2629,7 +2629,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="27">
@@ -2748,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
-        <v>408.9508114468735</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E29" t="n">
         <v>404.3632896068686</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2988,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>57.56516074743384</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3088,7 +3088,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U32" t="n">
         <v>648.751427201877</v>
@@ -3222,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3462,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>57.56516074743384</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
-        <v>448.0862339500177</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3705,31 +3705,31 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3805,7 +3805,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W41" t="n">
         <v>638.3734759809475</v>
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>396.495661159869</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4176,7 +4176,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>25.70923750768748</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4336,52 +4336,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L2" t="n">
-        <v>2963.709898714192</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M2" t="n">
-        <v>3445.889098227694</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N2" t="n">
-        <v>4010.932162100366</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O2" t="n">
-        <v>5755.312162100367</v>
+        <v>5550.205262006314</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R2" t="n">
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4497,19 +4497,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4549,49 +4549,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1765.421978263786</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L5" t="n">
-        <v>2963.709898714192</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M5" t="n">
-        <v>3445.889098227694</v>
+        <v>3445.889098227693</v>
       </c>
       <c r="N5" t="n">
-        <v>4010.932162100366</v>
+        <v>4010.932162100365</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
         <v>7048</v>
@@ -4600,25 +4600,25 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="6">
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4816,46 +4816,46 @@
         <v>1765.421978263786</v>
       </c>
       <c r="L8" t="n">
-        <v>2683.01470158037</v>
+        <v>3509.801978263786</v>
       </c>
       <c r="M8" t="n">
-        <v>3165.193901093872</v>
+        <v>3991.981177777289</v>
       </c>
       <c r="N8" t="n">
-        <v>3730.236964966544</v>
+        <v>4557.024241649961</v>
       </c>
       <c r="O8" t="n">
-        <v>5474.616964966544</v>
+        <v>5467.179124590705</v>
       </c>
       <c r="P8" t="n">
-        <v>6310.484293063958</v>
+        <v>6303.046452688119</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5044,28 +5044,28 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>2808.54850940269</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N11" t="n">
-        <v>3373.591573275362</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O11" t="n">
-        <v>4283.746456216106</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>5981.485937660902</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
         <v>7048</v>
@@ -5074,19 +5074,19 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
         <v>3583.51196363841</v>
@@ -5208,43 +5208,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W13" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="X13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,28 +5281,28 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>3042.307675747712</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>4280.114215286951</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N14" t="n">
-        <v>4845.157279159623</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100367</v>
+        <v>5264.058493781823</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.17949019778</v>
+        <v>6099.925821879237</v>
       </c>
       <c r="Q14" t="n">
         <v>7048</v>
@@ -5311,25 +5311,25 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5445,37 +5445,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V16" t="n">
         <v>140.96</v>
@@ -5497,10 +5497,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
         <v>1711.662994324041</v>
@@ -5518,55 +5518,55 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L17" t="n">
-        <v>3585.390275303557</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M17" t="n">
-        <v>4067.56947481706</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N17" t="n">
-        <v>4632.612538689732</v>
+        <v>4779.905300061373</v>
       </c>
       <c r="O17" t="n">
-        <v>5542.767421630476</v>
+        <v>5690.060183002117</v>
       </c>
       <c r="P17" t="n">
-        <v>6378.634749727889</v>
+        <v>6525.92751109953</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6982.748020901752</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5682,31 +5682,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
         <v>140.96</v>
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>2049.12665539136</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L20" t="n">
-        <v>2966.719378707943</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M20" t="n">
-        <v>3553.537024987069</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.580088859741</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800485</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897899</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5919,7 +5919,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
@@ -5971,49 +5971,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M23" t="n">
-        <v>3864.448844008177</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N23" t="n">
-        <v>4429.491907880849</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100367</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q23" t="n">
         <v>7048</v>
@@ -6022,25 +6022,25 @@
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6156,34 +6156,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U25" t="n">
         <v>140.96</v>
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6229,55 +6229,55 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L26" t="n">
-        <v>3042.307675747712</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M26" t="n">
-        <v>3524.486875261216</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N26" t="n">
-        <v>4089.529939133888</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
         <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6393,31 +6393,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
         <v>140.96</v>
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D29" t="n">
         <v>1711.662994324041</v>
@@ -6466,55 +6466,55 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M29" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N29" t="n">
-        <v>3379.82357278602</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R29" t="n">
         <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,40 +6630,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>199.10662701761</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>199.10662701761</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="W31" t="n">
         <v>140.96</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6706,52 +6706,52 @@
         <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K32" t="n">
-        <v>1339.420289043491</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L32" t="n">
-        <v>3083.800289043492</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M32" t="n">
-        <v>3565.979488556995</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N32" t="n">
-        <v>4131.022552429667</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O32" t="n">
-        <v>5041.17743537041</v>
+        <v>5474.616964966544</v>
       </c>
       <c r="P32" t="n">
-        <v>5877.044763467824</v>
+        <v>6310.484293063958</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R32" t="n">
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6867,37 +6867,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6919,49 +6919,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M35" t="n">
-        <v>2814.780508913348</v>
+        <v>2836.195545690814</v>
       </c>
       <c r="N35" t="n">
-        <v>3379.82357278602</v>
+        <v>3401.238609563487</v>
       </c>
       <c r="O35" t="n">
-        <v>4893.440008752984</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q35" t="n">
         <v>7048</v>
@@ -6970,25 +6970,25 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7104,37 +7104,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>199.10662701761</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>199.10662701761</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
         <v>140.96</v>
@@ -7156,13 +7156,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
         <v>1303.215227044376</v>
@@ -7177,28 +7177,28 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756521</v>
+        <v>1055.002360625124</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>1794.645504192963</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360075</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M38" t="n">
-        <v>3788.860546968407</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N38" t="n">
-        <v>4353.903610841079</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O38" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P38" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q38" t="n">
         <v>7048</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7341,40 +7341,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7426,16 +7426,16 @@
         <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>2739.192211873577</v>
+        <v>2808.548509402688</v>
       </c>
       <c r="N41" t="n">
-        <v>3304.235275746249</v>
+        <v>3373.59157327536</v>
       </c>
       <c r="O41" t="n">
-        <v>5048.61527574625</v>
+        <v>4283.746456216104</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q41" t="n">
         <v>7048</v>
@@ -7444,25 +7444,25 @@
         <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="42">
@@ -7578,34 +7578,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T43" t="n">
-        <v>140.96</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U43" t="n">
         <v>140.96</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7651,55 +7651,55 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>821.2992300042794</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2270.648739919987</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3188.24146323657</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3670.420662750073</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4235.463726622745</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O44" t="n">
-        <v>5145.618609563488</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P44" t="n">
-        <v>5981.485937660902</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7815,7 +7815,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
         <v>275.6639043471516</v>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>637.4834235498456</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>842.6516333931884</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>89.1144063949971</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>283.5305021553763</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>637.4834235498432</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931884</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8473,16 +8473,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>283.5305021553761</v>
+        <v>172.9791916632894</v>
       </c>
       <c r="R8" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -8704,19 +8704,19 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>70.05686619102255</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>419.864011392699</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>176.4768357656695</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>763.2599394199343</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>496.2158265843858</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>430.3047365861567</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.6916570402939</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>242.3879257638997</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>105.6954007733574</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>931.766039788185</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M23" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>105.4961355485622</v>
       </c>
       <c r="O23" t="n">
-        <v>419.8640113927008</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>176.4768357656695</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>223.759681342046</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,16 +9895,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>645.1956588512444</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -10123,25 +10123,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>721.3482088181361</v>
       </c>
       <c r="O29" t="n">
-        <v>746.2187031047695</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,16 +10369,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>603.2839282494476</v>
+        <v>283.5305021553743</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -10600,19 +10600,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>97.98316547195645</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>609.5571242689095</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>176.4768357656695</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>383.4716344542441</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
-        <v>496.2158265843873</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11074,19 +11074,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>70.05686619102073</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>713.8352387415321</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11299,13 +11299,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>147.4078661503606</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11317,16 +11317,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>595.77095817284</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23329,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23451,16 +23451,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23478,7 +23478,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23487,7 +23487,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
-        <v>247.4436454301076</v>
+        <v>233.0455432431063</v>
       </c>
       <c r="Y13" t="n">
         <v>287.4653528494624</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23688,16 +23688,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23715,10 +23715,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.388344292976228</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23949,7 +23949,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>2.808139187274662</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24423,10 +24423,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="27">
@@ -24636,16 +24636,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N28" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O28" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P28" t="n">
         <v>368.8061924102448</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.388344292976228</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24876,13 +24876,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O31" t="n">
-        <v>210.4930590692859</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P31" t="n">
         <v>368.8061924102448</v>
@@ -24900,13 +24900,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U31" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25110,16 +25110,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O34" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P34" t="n">
         <v>368.8061924102448</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25350,13 +25350,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O37" t="n">
-        <v>210.4930590692859</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P37" t="n">
         <v>368.8061924102448</v>
@@ -25377,7 +25377,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W37" t="n">
         <v>226.3728098387097</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O40" t="n">
-        <v>102.8454312732933</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P40" t="n">
         <v>368.8061924102448</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25821,16 +25821,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25845,10 +25845,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978206</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16812.76883547376</v>
+        <v>1391548.529551329</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33359.18696190734</v>
+        <v>2745378.847908867</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49905.60508834091</v>
+        <v>4099209.166266407</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68738.20278394973</v>
+        <v>5311855.334621574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87570.80047955856</v>
+        <v>6524501.50297674</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106403.3981751674</v>
+        <v>7737147.671331897</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125235.9958707762</v>
+        <v>8949793.839687053</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144068.593566385</v>
+        <v>10162440.00804221</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162901.1912619938</v>
+        <v>11375086.17639736</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181733.7889576026</v>
+        <v>12587732.34475252</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200566.3866532114</v>
+        <v>13800378.51310768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219398.9843488202</v>
+        <v>15013024.68146284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238231.5820444292</v>
+        <v>16225670.84981802</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257064.1797400382</v>
+        <v>17438317.0181732</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275896.7774356472</v>
+        <v>18650963.18652838</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="C2" t="n">
         <v>850079.5022245016</v>
@@ -26331,37 +26331,37 @@
         <v>761428.9894323123</v>
       </c>
       <c r="F2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="G2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323125</v>
+      </c>
+      <c r="M2" t="n">
         <v>761428.9894323124</v>
-      </c>
-      <c r="G2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323122</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323127</v>
       </c>
       <c r="N2" t="n">
         <v>761428.9894323123</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323123</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323123</v>
       </c>
     </row>
     <row r="3">
@@ -26432,40 +26432,40 @@
         <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
+        <v>38928.93672769591</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38928.9367276959</v>
+      </c>
+      <c r="G4" t="n">
         <v>38928.93672769592</v>
       </c>
-      <c r="F4" t="n">
-        <v>38928.93672769595</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38928.93672769595</v>
-      </c>
       <c r="H4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769593</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769595</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672769593</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="L4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769593</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="N4" t="n">
         <v>38928.93672769592</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769593</v>
+        <v>38928.9367276959</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769594</v>
+        <v>38928.93672769591</v>
       </c>
     </row>
     <row r="5">
@@ -26533,7 +26533,7 @@
         <v>563553.1753281546</v>
       </c>
       <c r="D6" t="n">
-        <v>563855.5359980876</v>
+        <v>563855.5359980875</v>
       </c>
       <c r="E6" t="n">
         <v>583520.6527046164</v>
@@ -26542,34 +26542,34 @@
         <v>583520.6527046164</v>
       </c>
       <c r="G6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="H6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="I6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-36703.34729538369</v>
+      </c>
+      <c r="K6" t="n">
+        <v>583520.6527046164</v>
+      </c>
+      <c r="L6" t="n">
+        <v>583520.6527046167</v>
+      </c>
+      <c r="M6" t="n">
         <v>583520.6527046165</v>
-      </c>
-      <c r="H6" t="n">
-        <v>583520.6527046165</v>
-      </c>
-      <c r="I6" t="n">
-        <v>583520.6527046165</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-36703.3472953834</v>
-      </c>
-      <c r="K6" t="n">
-        <v>583520.6527046163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>583520.6527046163</v>
-      </c>
-      <c r="M6" t="n">
-        <v>583520.6527046168</v>
       </c>
       <c r="N6" t="n">
         <v>583520.6527046164</v>
       </c>
       <c r="O6" t="n">
-        <v>583520.6527046163</v>
+        <v>583520.6527046164</v>
       </c>
       <c r="P6" t="n">
-        <v>583520.6527046168</v>
+        <v>583520.6527046164</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27705,10 +27705,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>388.0294482079482</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27930,13 +27930,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>227.6188561872211</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
@@ -27945,7 +27945,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="L10" t="n">
         <v>31.85592323974635</v>
@@ -28176,13 +28176,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>1564.344760233263</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34846,13 +34846,13 @@
         <v>1762</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>933.4248388166272</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34992,7 +34992,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35001,10 +35001,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35062,19 +35062,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1210.391838838793</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
-        <v>487.0496964782857</v>
+        <v>1124.533120028129</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
@@ -35226,13 +35226,13 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35241,7 +35241,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,16 +35317,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>744.9653605414585</v>
+        <v>634.4140500493718</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35463,7 +35463,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896767</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35472,13 +35472,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35536,31 +35536,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>557.1065626693082</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1339.212377999511</v>
       </c>
       <c r="P11" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35773,19 +35773,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
-        <v>1250.30963589822</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -35797,7 +35797,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>957.6506849704682</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36010,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>893.7563986827749</v>
@@ -36019,10 +36019,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36034,10 +36034,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>676.1265154263763</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.91108999823012</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>592.7450972516431</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356541</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36484,31 +36484,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>676.246705116918</v>
       </c>
       <c r="O23" t="n">
-        <v>1339.212377999513</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1150.621018025463</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36739,16 +36739,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>1564.544025458056</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,34 +36958,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1292.098778386492</v>
       </c>
       <c r="O29" t="n">
-        <v>1665.567069711581</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37198,13 +37198,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37213,16 +37213,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>1064.71878663553</v>
+        <v>744.9653605414567</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,31 +37432,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>585.0328619502421</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1528.905490875721</v>
+        <v>1762</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37669,25 +37669,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>846.9232965508622</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O38" t="n">
-        <v>1415.564193191199</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
@@ -37918,19 +37918,19 @@
         <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>557.1065626693064</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1558.145671163162</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>610.8595282469788</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38161,16 +38161,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1440.08139059447</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
